--- a/Skill Use.xlsx
+++ b/Skill Use.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Code\LA\la-character-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC907FF-FB2C-4777-8151-3E56E62FEAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B0682-5BE3-4CA7-9E63-7ADDE89706DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
   <si>
     <t>Skill Name</t>
   </si>
@@ -813,6 +813,12 @@
   </si>
   <si>
     <t>floor(t/3)</t>
+  </si>
+  <si>
+    <t>Disguise Person</t>
+  </si>
+  <si>
+    <t>disguise</t>
   </si>
 </sst>
 </file>
@@ -868,12 +874,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,16 +1181,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="160" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,7 +1237,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
@@ -1256,7 +1263,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
@@ -1282,7 +1289,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
@@ -1360,7 +1367,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
@@ -1516,7 +1523,7 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
@@ -1542,7 +1549,7 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
@@ -1594,7 +1601,7 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
@@ -1620,7 +1627,7 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
@@ -1646,7 +1653,7 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
@@ -1672,7 +1679,7 @@
       <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>3</v>
       </c>
       <c r="G19" t="s">
@@ -1698,7 +1705,7 @@
       <c r="E20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
@@ -1724,7 +1731,7 @@
       <c r="E21" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
@@ -1750,7 +1757,7 @@
       <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
@@ -1776,7 +1783,7 @@
       <c r="E23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
@@ -1802,7 +1809,7 @@
       <c r="E24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
@@ -1828,7 +1835,7 @@
       <c r="E25" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
@@ -1854,7 +1861,7 @@
       <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
@@ -1880,7 +1887,7 @@
       <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
@@ -1906,7 +1913,7 @@
       <c r="E28" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
@@ -1932,7 +1939,7 @@
       <c r="E29" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
@@ -1958,7 +1965,7 @@
       <c r="E30" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
@@ -1984,7 +1991,7 @@
       <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
@@ -2010,7 +2017,7 @@
       <c r="E32" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
@@ -2036,7 +2043,7 @@
       <c r="E33" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
@@ -2062,7 +2069,7 @@
       <c r="E34" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
@@ -2088,7 +2095,7 @@
       <c r="E35" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
@@ -2114,7 +2121,7 @@
       <c r="E36" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
@@ -2140,7 +2147,7 @@
       <c r="E37" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
@@ -2166,7 +2173,7 @@
       <c r="E38" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
@@ -2192,7 +2199,7 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>3</v>
       </c>
       <c r="G39">
@@ -2218,7 +2225,7 @@
       <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
@@ -2244,7 +2251,7 @@
       <c r="E41" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
@@ -2270,7 +2277,7 @@
       <c r="E42" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
@@ -2296,7 +2303,7 @@
       <c r="E43" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
@@ -2322,7 +2329,7 @@
       <c r="E44" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
@@ -2348,7 +2355,7 @@
       <c r="E45" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
@@ -2374,7 +2381,7 @@
       <c r="E46" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
@@ -2400,10 +2407,10 @@
       <c r="E47" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>3</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" t="s">
         <v>245</v>
       </c>
       <c r="H47" t="s">
@@ -2426,10 +2433,10 @@
       <c r="E48" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>3</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>245</v>
       </c>
       <c r="H48" t="s">
@@ -2452,10 +2459,10 @@
       <c r="E49" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" t="s">
         <v>245</v>
       </c>
       <c r="H49" t="s">
@@ -2478,10 +2485,10 @@
       <c r="E50" t="s">
         <v>129</v>
       </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>245</v>
       </c>
       <c r="H50" t="s">
@@ -2504,10 +2511,10 @@
       <c r="E51" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>245</v>
       </c>
       <c r="H51" t="s">
@@ -2530,10 +2537,10 @@
       <c r="E52" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>257</v>
       </c>
       <c r="H52" t="s">
@@ -2556,10 +2563,10 @@
       <c r="E53" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>245</v>
       </c>
       <c r="H53" t="s">
@@ -2582,10 +2589,10 @@
       <c r="E54" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" t="s">
         <v>245</v>
       </c>
       <c r="H54" t="s">
@@ -2608,10 +2615,10 @@
       <c r="E55" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>3</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" t="s">
         <v>251</v>
       </c>
       <c r="H55" t="s">
@@ -2634,10 +2641,10 @@
       <c r="E56" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>251</v>
       </c>
       <c r="H56" t="s">
@@ -2660,10 +2667,10 @@
       <c r="E57" t="s">
         <v>150</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>3</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" t="s">
         <v>251</v>
       </c>
       <c r="H57" t="s">
@@ -2686,10 +2693,10 @@
       <c r="E58" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>251</v>
       </c>
       <c r="H58" t="s">
@@ -2712,10 +2719,10 @@
       <c r="E59" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>251</v>
       </c>
       <c r="H59" t="s">
@@ -2738,10 +2745,10 @@
       <c r="E60" t="s">
         <v>158</v>
       </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>251</v>
       </c>
       <c r="H60" t="s">
@@ -2764,10 +2771,10 @@
       <c r="E61" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
         <v>245</v>
       </c>
       <c r="H61" t="s">
@@ -2790,10 +2797,10 @@
       <c r="E62" t="s">
         <v>164</v>
       </c>
-      <c r="F62" s="2">
-        <v>1</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
         <v>253</v>
       </c>
       <c r="H62" t="s">
@@ -2816,10 +2823,10 @@
       <c r="E63" t="s">
         <v>167</v>
       </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
         <v>253</v>
       </c>
       <c r="H63" t="s">
@@ -2842,10 +2849,10 @@
       <c r="E64" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="2">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
         <v>253</v>
       </c>
       <c r="H64" t="s">
@@ -2868,10 +2875,10 @@
       <c r="E65" t="s">
         <v>164</v>
       </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
         <v>253</v>
       </c>
       <c r="H65" t="s">
@@ -2894,7 +2901,7 @@
       <c r="E66" t="s">
         <v>174</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" t="s">
@@ -2920,7 +2927,7 @@
       <c r="E67" t="s">
         <v>176</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>1</v>
       </c>
       <c r="G67" t="s">
@@ -2946,13 +2953,13 @@
       <c r="E68" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
         <v>255</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2972,10 +2979,10 @@
       <c r="E69" t="s">
         <v>182</v>
       </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
         <v>255</v>
       </c>
       <c r="H69" t="s">
@@ -2998,10 +3005,10 @@
       <c r="E70" t="s">
         <v>185</v>
       </c>
-      <c r="F70" s="2">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
         <v>255</v>
       </c>
       <c r="H70" t="s">
@@ -3024,10 +3031,10 @@
       <c r="E71" t="s">
         <v>185</v>
       </c>
-      <c r="F71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>255</v>
       </c>
       <c r="H71" t="s">
@@ -3053,7 +3060,7 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" t="s">
         <v>255</v>
       </c>
       <c r="H72" t="s">
@@ -3076,10 +3083,10 @@
       <c r="E73" t="s">
         <v>185</v>
       </c>
-      <c r="F73" s="2">
-        <v>1</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
         <v>255</v>
       </c>
       <c r="H73" t="s">
@@ -3102,7 +3109,7 @@
       <c r="E74" t="s">
         <v>174</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
@@ -3128,10 +3135,10 @@
       <c r="E75" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="2">
-        <v>1</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>256</v>
       </c>
       <c r="H75" t="s">
@@ -3154,10 +3161,10 @@
       <c r="E76" t="s">
         <v>195</v>
       </c>
-      <c r="F76" s="2">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>256</v>
       </c>
       <c r="H76" t="s">
@@ -3180,10 +3187,10 @@
       <c r="E77" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="2">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
         <v>256</v>
       </c>
       <c r="H77" t="s">
@@ -3206,10 +3213,10 @@
       <c r="E78" t="s">
         <v>203</v>
       </c>
-      <c r="F78" s="2">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>256</v>
       </c>
       <c r="H78" t="s">
@@ -3232,10 +3239,10 @@
       <c r="E79" t="s">
         <v>206</v>
       </c>
-      <c r="F79" s="2">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
         <v>256</v>
       </c>
       <c r="H79" t="s">
@@ -3244,7 +3251,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
         <v>118</v>
@@ -3252,43 +3259,37 @@
       <c r="C80">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" t="s">
-        <v>174</v>
-      </c>
-      <c r="F80" s="2">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>254</v>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
-      </c>
-      <c r="F81" s="2">
-        <v>2</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>251</v>
+        <v>174</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>254</v>
       </c>
       <c r="H81" t="s">
         <v>244</v>
@@ -3296,7 +3297,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
         <v>209</v>
@@ -3305,15 +3306,15 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
         <v>251</v>
       </c>
       <c r="H82" t="s">
@@ -3322,24 +3323,24 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B83" t="s">
         <v>209</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
-      </c>
-      <c r="F83" s="2">
-        <v>2</v>
-      </c>
-      <c r="G83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
         <v>251</v>
       </c>
       <c r="H83" t="s">
@@ -3348,7 +3349,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
         <v>209</v>
@@ -3357,15 +3358,15 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1</v>
-      </c>
-      <c r="G84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
         <v>251</v>
       </c>
       <c r="H84" t="s">
@@ -3374,25 +3375,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
         <v>209</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>223</v>
-      </c>
-      <c r="F85" s="2">
-        <v>1</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>259</v>
+        <v>220</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>251</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3400,25 +3401,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
         <v>209</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>259</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3426,7 +3427,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s">
         <v>209</v>
@@ -3440,10 +3441,10 @@
       <c r="E87" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="2">
-        <v>1</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
         <v>251</v>
       </c>
       <c r="H87" t="s">
@@ -3452,33 +3453,33 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B89" t="s">
         <v>229</v>
@@ -3492,7 +3493,7 @@
       <c r="E89" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
@@ -3504,7 +3505,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B90" t="s">
         <v>229</v>
@@ -3518,7 +3519,7 @@
       <c r="E90" t="s">
         <v>231</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
@@ -3530,7 +3531,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
         <v>229</v>
@@ -3544,7 +3545,7 @@
       <c r="E91" t="s">
         <v>231</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
@@ -3556,7 +3557,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
         <v>229</v>
@@ -3570,7 +3571,7 @@
       <c r="E92" t="s">
         <v>231</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
@@ -3582,7 +3583,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
         <v>229</v>
@@ -3596,7 +3597,7 @@
       <c r="E93" t="s">
         <v>231</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
@@ -3608,7 +3609,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s">
         <v>229</v>
@@ -3622,7 +3623,7 @@
       <c r="E94" t="s">
         <v>231</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
@@ -3634,7 +3635,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s">
         <v>229</v>
@@ -3648,7 +3649,7 @@
       <c r="E95" t="s">
         <v>231</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
@@ -3660,7 +3661,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
         <v>229</v>
@@ -3674,7 +3675,7 @@
       <c r="E96" t="s">
         <v>231</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96">
         <v>1</v>
       </c>
       <c r="G96">
@@ -3686,7 +3687,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
         <v>229</v>
@@ -3700,13 +3701,39 @@
       <c r="E97" t="s">
         <v>231</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>230</v>
+      </c>
+      <c r="E98" t="s">
+        <v>231</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
         <v>247</v>
       </c>
     </row>

--- a/Skill Use.xlsx
+++ b/Skill Use.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Code\LA\la-character-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B0682-5BE3-4CA7-9E63-7ADDE89706DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595F926-D6F3-4F77-B211-F6399B2AACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="263">
   <si>
     <t>Skill Name</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>disguise</t>
+  </si>
+  <si>
+    <t>Healer’s Chant/Words of Curse</t>
   </si>
 </sst>
 </file>
@@ -1181,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3740,28 @@
         <v>247</v>
       </c>
     </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>